--- a/Feast data/Land_use_parameters.xlsx
+++ b/Feast data/Land_use_parameters.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EBC182-558A-4A45-B79D-249495DC9196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DC103B-73FD-4B27-8674-E7E5AC537714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="5" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
     <sheet name="FEAST_DMI_Data" sheetId="1" r:id="rId2"/>
-    <sheet name="THH" sheetId="2" r:id="rId3"/>
-    <sheet name="Sarid" sheetId="6" r:id="rId4"/>
+    <sheet name="Sarid" sheetId="6" r:id="rId3"/>
+    <sheet name="THSH" sheetId="7" r:id="rId4"/>
     <sheet name="SH" sheetId="5" r:id="rId5"/>
-    <sheet name="THSH" sheetId="7" r:id="rId6"/>
+    <sheet name="THH" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="58">
   <si>
     <t>Awendo</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t xml:space="preserve">* averages were taken across multiple sites as data were either missing or multiple sites were available allowing means to be taken </t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -306,14 +312,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,9 +343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,7 +383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -483,7 +489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -625,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,83 +642,83 @@
   <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="49.1796875" customWidth="1"/>
-    <col min="4" max="4" width="25.90625" customWidth="1"/>
+    <col min="2" max="2" width="49.15625" customWidth="1"/>
+    <col min="4" max="4" width="25.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -730,16 +736,16 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="33.7890625" customWidth="1"/>
+    <col min="3" max="3" width="11.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -762,7 +768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -775,9 +781,8 @@
       <c r="D2" s="1">
         <v>0.3785</v>
       </c>
-      <c r="E2" s="12">
-        <f>E6</f>
-        <v>3500</v>
+      <c r="E2" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F2" s="1">
         <v>10600</v>
@@ -786,7 +791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -799,9 +804,8 @@
       <c r="D3" s="1">
         <v>0.3785</v>
       </c>
-      <c r="E3" s="1">
-        <f>E6</f>
-        <v>3500</v>
+      <c r="E3" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F3" s="1">
         <v>10600</v>
@@ -810,7 +814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -826,12 +830,12 @@
       <c r="E4" s="1">
         <v>3500</v>
       </c>
-      <c r="F4" s="12">
-        <f>F6</f>
+      <c r="F4" s="11">
+        <f ca="1">F6</f>
         <v>10600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -851,13 +855,25 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(C2:C5)</f>
+        <v>1832.25</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:F6" si="0">AVERAGE(D2:D5)</f>
+        <v>0.3785</v>
+      </c>
       <c r="E6">
         <f>AVERAGE(E4:E5)</f>
         <v>3500</v>
       </c>
-      <c r="F6" s="1">
-        <v>10600</v>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1832.25</v>
       </c>
     </row>
   </sheetData>
@@ -866,22 +882,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0FC301-9B58-43C5-A375-F8B31B6A40EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846C26CF-B37C-4213-BE8B-7FF8F600B129}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="5" max="5" width="21.26171875" customWidth="1"/>
+    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -907,53 +923,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="1">
-        <f>FEAST_DMI_Data!C2</f>
-        <v>2211</v>
+        <f>FEAST_DMI_Data!C3</f>
+        <v>1238</v>
       </c>
       <c r="G2" s="8">
         <v>0.75</v>
       </c>
-      <c r="H2" s="16">
-        <f>1/(1-FEAST_DMI_Data!D2)</f>
+      <c r="H2" s="13">
+        <f>1/(1-FEAST_DMI_Data!D3)</f>
         <v>1.6090104585679808</v>
       </c>
       <c r="I2" s="1">
         <f>B4</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>I2/(F2*(1/G2)*(H2))</f>
-        <v>5.0597014925373137E-3</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
         <f>100*J2/SUM(J2:J3)</f>
-        <v>95.137258903969808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1">
         <f>F2</f>
-        <v>2211</v>
+        <v>1238</v>
       </c>
       <c r="G3" s="8">
         <f>1-0.047</f>
@@ -964,49 +980,49 @@
       </c>
       <c r="I3" s="1">
         <f>B6</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <f>I3/(F3*(1/G3)*(1/H3))</f>
-        <v>2.5861601085481681E-4</v>
+        <f>I3/(F3*(1/G3)*(H3))</f>
+        <v>7.6978998384491116E-3</v>
       </c>
       <c r="K3" s="4">
         <f>100*J3/SUM(J2:J3)</f>
-        <v>4.8627410960302067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="J4">
         <f>SUM(J2:J3)</f>
-        <v>5.3183175033921304E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>7.6978998384491116E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1029,7 +1045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1045,19 +1061,19 @@
       </c>
       <c r="I8" s="1">
         <f>(B2+B3)</f>
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="J8">
         <f>I8/(F8/G8)</f>
-        <v>6.8571428571428568E-3</v>
+        <v>1.3428571428571429E-2</v>
       </c>
       <c r="K8" s="2">
         <f>100*J8/SUM(J8,J9)</f>
-        <v>84.336151168572854</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <f>FEAST_DMI_Data!F2</f>
+        <f>FEAST_DMI_Data!F3</f>
         <v>10600</v>
       </c>
       <c r="G9" s="7">
@@ -1076,19 +1092,19 @@
       </c>
       <c r="I9" s="1">
         <f>B5</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f>I9/(F9/G9)</f>
-        <v>1.2735849056603773E-3</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <f>100*J9/SUM(J8,J9)</f>
-        <v>15.663848831427151</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1098,14 +1114,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1119,7 +1135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1129,67 +1145,67 @@
       </c>
       <c r="J13" s="2">
         <f>100*J2/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>37.621268962898405</v>
+        <v>0</v>
       </c>
       <c r="K13" s="5">
         <f>J13*F$24/100</f>
-        <v>0.15621829876377438</v>
+        <v>0</v>
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
       </c>
       <c r="J14" s="2">
         <f>100*J3/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>1.9229321170095026</v>
+        <v>36.437224850067189</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" ref="K14:K16" si="0">J14*F$24/100</f>
-        <v>7.9847701111223895E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.1771962719038844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
       </c>
       <c r="J15" s="2">
         <f>100*J8/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>50.986093967417304</v>
+        <v>63.562775149932826</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="0"/>
-        <v>0.21171430628921126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.30910934723428024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
       </c>
       <c r="J16" s="2">
         <f>100*J9/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>9.4697049526747943</v>
+        <v>0</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="0"/>
-        <v>3.9321937783668368E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1198,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1207,22 +1223,22 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="5">
-        <f>(1/1000)*(F2*J13*(1/H2)*G2+F3*J14*G3*H3+F8*J15*G8+F9*J16*G8)/100</f>
-        <v>1.8061873638017643</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+        <f>(1/1000)*(F2*J13*H2*G2+F3*J14*G3+F8*J15*G8+F9*J16*G8)/100</f>
+        <v>1.5422400451163965</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <f>F22/F23</f>
-        <v>0.41523931294777638</v>
+        <v>0.48630561913816456</v>
       </c>
     </row>
   </sheetData>
@@ -1232,22 +1248,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846C26CF-B37C-4213-BE8B-7FF8F600B129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DFA0A1-961B-4C3D-AD13-0CD114EA8D15}">
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="5" max="5" width="21.26171875" customWidth="1"/>
+    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1273,106 +1289,107 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="1">
-        <f>FEAST_DMI_Data!C3</f>
-        <v>1238</v>
+        <f>FEAST_DMI_Data!C5</f>
+        <v>2160</v>
       </c>
       <c r="G2" s="8">
+        <f>0.75</f>
         <v>0.75</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f>1/(1-FEAST_DMI_Data!D3)</f>
         <v>1.6090104585679808</v>
       </c>
       <c r="I2" s="1">
         <f>B4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <f>I2/(F2*(1/G2)*(H2))</f>
-        <v>0</v>
+        <v>1.2947916666666665E-3</v>
       </c>
       <c r="K2" s="4">
         <f>100*J2/SUM(J2:J3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>63.778719522624044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1">
         <f>F2</f>
-        <v>1238</v>
+        <v>2160</v>
       </c>
       <c r="G3" s="8">
         <f>1-0.047</f>
         <v>0.95299999999999996</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="14">
         <v>0.6</v>
       </c>
       <c r="I3" s="1">
         <f>B6</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f>I3/(F3*(1/G3)*(H3))</f>
-        <v>7.6978998384491116E-3</v>
+        <v>7.3533950617283943E-4</v>
       </c>
       <c r="K3" s="4">
         <f>100*J3/SUM(J2:J3)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>36.221280477375956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="J4">
         <f>SUM(J2:J3)</f>
-        <v>7.6978998384491116E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2.0301311728395059E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1395,12 +1412,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <f>FEAST_DMI_Data!E3</f>
+        <f>FEAST_DMI_Data!E5</f>
         <v>3500</v>
       </c>
       <c r="G8" s="7">
@@ -1411,19 +1428,19 @@
       </c>
       <c r="I8" s="1">
         <f>(B2+B3)</f>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="J8">
         <f>I8/(F8/G8)</f>
-        <v>1.3428571428571429E-2</v>
+        <v>8.2857142857142851E-3</v>
       </c>
       <c r="K8" s="2">
         <f>100*J8/SUM(J8,J9)</f>
-        <v>100.00000000000001</v>
+        <v>83.385324833853247</v>
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1431,7 +1448,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <f>FEAST_DMI_Data!F3</f>
+        <f>FEAST_DMI_Data!F5</f>
         <v>10600</v>
       </c>
       <c r="G9" s="7">
@@ -1442,19 +1459,19 @@
       </c>
       <c r="I9" s="1">
         <f>B5</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J9">
         <f>I9/(F9/G9)</f>
-        <v>0</v>
+        <v>1.6509433962264152E-3</v>
       </c>
       <c r="K9" s="2">
         <f>100*J9/SUM(J8,J9)</f>
-        <v>0</v>
+        <v>16.614675166146757</v>
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1464,14 +1481,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1485,7 +1502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1495,67 +1512,67 @@
       </c>
       <c r="J13" s="2">
         <f>100*J2/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>0</v>
+        <v>10.819875593856192</v>
       </c>
       <c r="K13" s="5">
         <f>J13*F$24/100</f>
-        <v>0</v>
+        <v>3.4510989587346795E-2</v>
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
       </c>
       <c r="J14" s="2">
         <f>100*J3/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>36.437224850067189</v>
+        <v>6.1448356371651336</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" ref="K14:K16" si="0">J14*F$24/100</f>
-        <v>0.1771962719038844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.9599519130384376E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
       </c>
       <c r="J15" s="2">
         <f>100*J8/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>63.562775149932826</v>
+        <v>69.239245266740937</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="0"/>
-        <v>0.30910934723428024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.22084494888213652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
       </c>
       <c r="J16" s="2">
         <f>100*J9/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>0</v>
+        <v>13.796043502237746</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+        <v>4.4003751200490777E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1564,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1573,22 +1590,22 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="5">
-        <f>(1/1000)*(F2*J13*H2*G2+F3*J14*G3+F8*J15*G8+F9*J16*G8)/100</f>
-        <v>1.5422400451163965</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+        <f>(1/1000)*(F2*J13*(H2*G2)+F3*J14*G3+F8*J15*G8+F9*J16*G8)/100</f>
+        <v>2.3513978568633731</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <f>F22/F23</f>
-        <v>0.48630561913816456</v>
+        <v>0.31895920880035844</v>
       </c>
     </row>
   </sheetData>
@@ -1605,15 +1622,15 @@
       <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="5" max="5" width="21.26171875" customWidth="1"/>
+    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1639,7 +1656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1657,7 +1674,7 @@
       <c r="G2" s="8">
         <v>0.75</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f>1/(1-FEAST_DMI_Data!D3)</f>
         <v>1.6090104585679808</v>
       </c>
@@ -1674,7 +1691,7 @@
         <v>1.9837674025184113</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1710,7 @@
         <f>1-0.047</f>
         <v>0.95299999999999996</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>0.6</v>
       </c>
       <c r="I3" s="1">
@@ -1709,7 +1726,7 @@
         <v>98.01623259748159</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1742,7 @@
         <v>9.1073481912144691E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1734,7 +1751,7 @@
         <v>33.666666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1743,7 +1760,7 @@
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1766,7 +1783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1789,12 +1806,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K8" s="2">
-        <f>100*J8/SUM(J8,J9)</f>
+        <f ca="1">100*J8/SUM(J8,J9)</f>
         <v>83.437192522138403</v>
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1802,7 +1819,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <f>FEAST_DMI_Data!F4</f>
+        <f ca="1">FEAST_DMI_Data!F4</f>
         <v>10600</v>
       </c>
       <c r="G9" s="7">
@@ -1816,16 +1833,16 @@
         <v>33.666666666666664</v>
       </c>
       <c r="J9">
-        <f>I9/(F9/G9)</f>
+        <f ca="1">I9/(F9/G9)</f>
         <v>1.5880503144654087E-3</v>
       </c>
       <c r="K9" s="2">
-        <f>100*J9/SUM(J8,J9)</f>
+        <f ca="1">100*J9/SUM(J8,J9)</f>
         <v>16.562807477861593</v>
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1835,14 +1852,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1865,68 +1882,68 @@
         <v>Maize as residue</v>
       </c>
       <c r="J13" s="2">
-        <f>100*J2/SUM(J$2,J$3,J$8,J$9)</f>
+        <f ca="1">100*J2/SUM(J$2,J$3,J$8,J$9)</f>
         <v>0.9663800672463525</v>
       </c>
       <c r="K13" s="5">
-        <f>J13*F$24/100</f>
+        <f ca="1">J13*F$24/100</f>
         <v>3.6207175365601313E-3</v>
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
       </c>
       <c r="J14" s="2">
-        <f>100*J3/SUM(J$2,J$3,J$8,J$9)</f>
+        <f ca="1">100*J3/SUM(J$2,J$3,J$8,J$9)</f>
         <v>47.748003787409388</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ref="K14:K16" si="0">J14*F$24/100</f>
+        <f t="shared" ref="K14:K16" ca="1" si="0">J14*F$24/100</f>
         <v>0.17889652374704984</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
       </c>
       <c r="J15" s="2">
-        <f>100*J8/SUM(J$2,J$3,J$8,J$9)</f>
+        <f ca="1">100*J8/SUM(J$2,J$3,J$8,J$9)</f>
         <v>42.791278279355787</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.16032525600343495</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
       </c>
       <c r="J16" s="2">
-        <f>100*J9/SUM(J$2,J$3,J$8,J$9)</f>
+        <f ca="1">100*J9/SUM(J$2,J$3,J$8,J$9)</f>
         <v>8.4943378659884718</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3.1825571651625251E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1935,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1944,21 +1961,21 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="5">
-        <f>(1/1000)*(F2*J13*H2*G2+F3*J14*G3+F8*J15*G8+F9*J16*G8)/100</f>
+        <f ca="1">(1/1000)*(F2*J13*H2*G2+F3*J14*G3+F8*J15*G8+F9*J16*G8)/100</f>
         <v>2.0017718673612626</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="13">
-        <f>F22/F23</f>
+      <c r="F24" s="12">
+        <f ca="1">F22/F23</f>
         <v>0.37466806893867016</v>
       </c>
     </row>
@@ -1969,22 +1986,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DFA0A1-961B-4C3D-AD13-0CD114EA8D15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0FC301-9B58-43C5-A375-F8B31B6A40EE}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="5" max="5" width="21.26171875" customWidth="1"/>
+    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -2010,60 +2027,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="1">
-        <f>FEAST_DMI_Data!C5</f>
-        <v>2160</v>
+        <f>FEAST_DMI_Data!C2</f>
+        <v>2211</v>
       </c>
       <c r="G2" s="8">
-        <f>0.75</f>
         <v>0.75</v>
       </c>
-      <c r="H2" s="14">
-        <f>1/(1-FEAST_DMI_Data!D3)</f>
+      <c r="H2" s="15">
+        <f>1/(1-FEAST_DMI_Data!D2)</f>
         <v>1.6090104585679808</v>
       </c>
       <c r="I2" s="1">
         <f>B4</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J2">
         <f>I2/(F2*(1/G2)*(H2))</f>
-        <v>1.2947916666666665E-3</v>
+        <v>5.0597014925373137E-3</v>
       </c>
       <c r="K2" s="4">
         <f>100*J2/SUM(J2:J3)</f>
-        <v>63.778719522624044</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>95.137258903969808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1">
         <f>F2</f>
-        <v>2160</v>
+        <v>2211</v>
       </c>
       <c r="G3" s="8">
         <f>1-0.047</f>
         <v>0.95299999999999996</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="9">
         <v>0.6</v>
       </c>
       <c r="I3" s="1">
@@ -2071,38 +2087,38 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f>I3/(F3*(1/G3)*(H3))</f>
-        <v>7.3533950617283943E-4</v>
+        <f>I3/(F3*(1/G3)*(1/H3))</f>
+        <v>2.5861601085481681E-4</v>
       </c>
       <c r="K3" s="4">
         <f>100*J3/SUM(J2:J3)</f>
-        <v>36.221280477375956</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.8627410960302067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="J4">
         <f>SUM(J2:J3)</f>
-        <v>2.0301311728395059E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5.3183175033921304E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -2133,12 +2149,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <f>FEAST_DMI_Data!E5</f>
+        <f>FEAST_DMI_Data!E6</f>
         <v>3500</v>
       </c>
       <c r="G8" s="7">
@@ -2149,19 +2165,19 @@
       </c>
       <c r="I8" s="1">
         <f>(B2+B3)</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <f>I8/(F8/G8)</f>
-        <v>8.2857142857142851E-3</v>
+        <v>6.8571428571428568E-3</v>
       </c>
       <c r="K8" s="2">
         <f>100*J8/SUM(J8,J9)</f>
-        <v>83.385324833853247</v>
+        <v>84.336151168572854</v>
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2169,7 +2185,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="1">
-        <f>FEAST_DMI_Data!F5</f>
+        <f>FEAST_DMI_Data!F2</f>
         <v>10600</v>
       </c>
       <c r="G9" s="7">
@@ -2180,19 +2196,19 @@
       </c>
       <c r="I9" s="1">
         <f>B5</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J9">
         <f>I9/(F9/G9)</f>
-        <v>1.6509433962264152E-3</v>
+        <v>1.2735849056603773E-3</v>
       </c>
       <c r="K9" s="2">
         <f>100*J9/SUM(J8,J9)</f>
-        <v>16.614675166146757</v>
+        <v>15.663848831427151</v>
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -2202,14 +2218,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -2223,7 +2239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2233,67 +2249,67 @@
       </c>
       <c r="J13" s="2">
         <f>100*J2/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>10.819875593856192</v>
+        <v>37.621268962898405</v>
       </c>
       <c r="K13" s="5">
         <f>J13*F$24/100</f>
-        <v>3.4510989587346795E-2</v>
+        <v>0.15621829876377438</v>
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
       </c>
       <c r="J14" s="2">
         <f>100*J3/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>6.1448356371651336</v>
+        <v>1.9229321170095026</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" ref="K14:K16" si="0">J14*F$24/100</f>
-        <v>1.9599519130384376E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>7.9847701111223895E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
       </c>
       <c r="J15" s="2">
         <f>100*J8/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>69.239245266740937</v>
+        <v>50.986093967417304</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="0"/>
-        <v>0.22084494888213652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.21171430628921126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
       </c>
       <c r="J16" s="2">
         <f>100*J9/SUM(J$2,J$3,J$8,J$9)</f>
-        <v>13.796043502237746</v>
+        <v>9.4697049526747943</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="0"/>
-        <v>4.4003751200490777E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+        <v>3.9321937783668368E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -2302,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -2311,22 +2327,22 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="5">
-        <f>(1/1000)*(F2*J13*(H2*G2)+F3*J14*G3+F8*J15*G8+F9*J16*G8)/100</f>
-        <v>2.3513978568633731</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+        <f>(1/1000)*(F2*J13*(1/H2)*G2+F3*J14*G3*H3+F8*J15*G8+F9*J16*G8)/100</f>
+        <v>1.8061873638017643</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <f>F22/F23</f>
-        <v>0.31895920880035844</v>
+        <v>0.41523931294777638</v>
       </c>
     </row>
   </sheetData>

--- a/Feast data/Land_use_parameters.xlsx
+++ b/Feast data/Land_use_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DC103B-73FD-4B27-8674-E7E5AC537714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD62C366-8E03-4C2F-84B9-5B7506DDF0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="5" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
@@ -886,7 +886,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1660,7 +1660,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="15">
         <f>AVERAGE(54,13,54)</f>
         <v>40.333333333333336</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="15">
         <f>AVERAGE(14,19,14)</f>
         <v>15.666666666666666</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="15">
         <f>AVERAGE(0,2,0)</f>
         <v>0.66666666666666663</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="15">
         <f>AVERAGE(26,49,26)</f>
         <v>33.666666666666664</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="15">
         <f>AVERAGE(6,17,6)</f>
         <v>9.6666666666666661</v>
       </c>
@@ -1990,7 +1990,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Feast data/Land_use_parameters.xlsx
+++ b/Feast data/Land_use_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD62C366-8E03-4C2F-84B9-5B7506DDF0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D5AA42-AF13-4E59-A89A-1218127B8D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="5" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -343,9 +343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -383,7 +383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -489,7 +489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,80 +645,80 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="49.15625" customWidth="1"/>
-    <col min="4" max="4" width="25.89453125" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -739,13 +739,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.7890625" customWidth="1"/>
-    <col min="3" max="3" width="11.1015625" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -814,7 +814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -835,7 +835,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -855,7 +855,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -889,15 +889,15 @@
       <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="5" max="5" width="21.26171875" customWidth="1"/>
-    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3671875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -923,7 +923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -991,7 +991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>7.6978998384491116E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1114,14 +1114,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -1167,7 +1167,7 @@
         <v>0.1771962719038844</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -1181,7 +1181,7 @@
         <v>0.30910934723428024</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -1195,17 +1195,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1.5422400451163965</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1255,15 +1255,15 @@
       <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="5" max="5" width="21.26171875" customWidth="1"/>
-    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3671875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>63.778719522624044</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>36.221280477375956</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>2.0301311728395059E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1481,14 +1481,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -1534,7 +1534,7 @@
         <v>1.9599519130384376E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -1548,7 +1548,7 @@
         <v>0.22084494888213652</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -1562,17 +1562,17 @@
         <v>4.4003751200490777E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>2.3513978568633731</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1622,15 +1622,15 @@
       <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="5" max="5" width="21.26171875" customWidth="1"/>
-    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3671875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>1.9837674025184113</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>98.01623259748159</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>9.1073481912144691E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>33.666666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1852,14 +1852,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -1905,7 +1905,7 @@
         <v>0.17889652374704984</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -1919,7 +1919,7 @@
         <v>0.16032525600343495</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -1933,17 +1933,17 @@
         <v>3.1825571651625251E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>2.0017718673612626</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1990,18 +1990,18 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="5" max="5" width="21.26171875" customWidth="1"/>
-    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3671875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>95.137258903969808</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>4.8627410960302067</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>5.3183175033921304E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -2218,14 +2218,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -2271,7 +2271,7 @@
         <v>7.9847701111223895E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -2285,7 +2285,7 @@
         <v>0.21171430628921126</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -2299,17 +2299,17 @@
         <v>3.9321937783668368E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1.8061873638017643</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>

--- a/Feast data/Land_use_parameters.xlsx
+++ b/Feast data/Land_use_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D5AA42-AF13-4E59-A89A-1218127B8D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E5630B-8662-48FE-B852-B06CBAA7963E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="5" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -343,9 +343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -383,7 +383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -489,7 +489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,80 +645,80 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="49.1796875" customWidth="1"/>
-    <col min="4" max="4" width="25.90625" customWidth="1"/>
+    <col min="2" max="2" width="49.15625" customWidth="1"/>
+    <col min="4" max="4" width="25.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -739,13 +739,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="33.7890625" customWidth="1"/>
+    <col min="3" max="3" width="11.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -814,7 +814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -835,7 +835,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -855,7 +855,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -889,15 +889,15 @@
       <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="5" max="5" width="21.26171875" customWidth="1"/>
+    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -923,7 +923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -991,7 +991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>7.6978998384491116E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1114,14 +1114,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -1167,7 +1167,7 @@
         <v>0.1771962719038844</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -1181,7 +1181,7 @@
         <v>0.30910934723428024</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -1195,17 +1195,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1.5422400451163965</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1255,15 +1255,15 @@
       <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="5" max="5" width="21.26171875" customWidth="1"/>
+    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>63.778719522624044</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>36.221280477375956</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>2.0301311728395059E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1481,14 +1481,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -1534,7 +1534,7 @@
         <v>1.9599519130384376E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -1548,7 +1548,7 @@
         <v>0.22084494888213652</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -1562,17 +1562,17 @@
         <v>4.4003751200490777E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>2.3513978568633731</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1622,15 +1622,15 @@
       <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="5" max="5" width="21.26171875" customWidth="1"/>
+    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>1.9837674025184113</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>98.01623259748159</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>9.1073481912144691E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>33.666666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1852,14 +1852,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -1905,7 +1905,7 @@
         <v>0.17889652374704984</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -1919,7 +1919,7 @@
         <v>0.16032525600343495</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -1933,17 +1933,17 @@
         <v>3.1825571651625251E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>2.0017718673612626</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1993,15 +1993,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="5" max="5" width="21.26171875" customWidth="1"/>
+    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>95.137258903969808</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>4.8627410960302067</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>5.3183175033921304E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -2218,14 +2218,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -2271,7 +2271,7 @@
         <v>7.9847701111223895E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -2285,7 +2285,7 @@
         <v>0.21171430628921126</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -2299,17 +2299,17 @@
         <v>3.9321937783668368E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1.8061873638017643</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>

--- a/Feast data/Land_use_parameters.xlsx
+++ b/Feast data/Land_use_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\Github\Crop-simulation-study\Feast data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E5630B-8662-48FE-B852-B06CBAA7963E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76680004-D0E8-47CB-8315-BCB7D3F0FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="5" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -343,9 +343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -383,7 +383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -489,7 +489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,80 +645,80 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="49.15625" customWidth="1"/>
-    <col min="4" max="4" width="25.89453125" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -739,13 +739,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.7890625" customWidth="1"/>
-    <col min="3" max="3" width="11.1015625" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -814,7 +814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -835,7 +835,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -855,7 +855,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -889,15 +889,15 @@
       <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="5" max="5" width="21.26171875" customWidth="1"/>
-    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3671875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -923,7 +923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -991,7 +991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>7.6978998384491116E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1114,14 +1114,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -1167,7 +1167,7 @@
         <v>0.1771962719038844</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -1181,7 +1181,7 @@
         <v>0.30910934723428024</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -1195,17 +1195,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1.5422400451163965</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1255,15 +1255,15 @@
       <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="5" max="5" width="21.26171875" customWidth="1"/>
-    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3671875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>63.778719522624044</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>36.221280477375956</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>2.0301311728395059E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1481,14 +1481,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -1534,7 +1534,7 @@
         <v>1.9599519130384376E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -1548,7 +1548,7 @@
         <v>0.22084494888213652</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -1562,17 +1562,17 @@
         <v>4.4003751200490777E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>2.3513978568633731</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1622,15 +1622,15 @@
       <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="5" max="5" width="21.26171875" customWidth="1"/>
-    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3671875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>1.9837674025184113</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>98.01623259748159</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>9.1073481912144691E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>33.666666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1852,14 +1852,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -1905,7 +1905,7 @@
         <v>0.17889652374704984</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -1919,7 +1919,7 @@
         <v>0.16032525600343495</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -1933,17 +1933,17 @@
         <v>3.1825571651625251E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>2.0017718673612626</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1993,15 +1993,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="5" max="5" width="21.26171875" customWidth="1"/>
-    <col min="10" max="10" width="9.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3671875" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>95.137258903969808</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>4.8627410960302067</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>5.3183175033921304E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -2218,14 +2218,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E14" t="str">
         <f>E3</f>
         <v>Maize as concentrate</v>
@@ -2271,7 +2271,7 @@
         <v>7.9847701111223895E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E15" t="str">
         <f>E8</f>
         <v>Native grass</v>
@@ -2285,7 +2285,7 @@
         <v>0.21171430628921126</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E16" t="str">
         <f>E9</f>
         <v>Improved forage</v>
@@ -2299,17 +2299,17 @@
         <v>3.9321937783668368E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1.8061873638017643</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>

--- a/Feast data/Land_use_parameters.xlsx
+++ b/Feast data/Land_use_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76680004-D0E8-47CB-8315-BCB7D3F0FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373F51D6-B773-45C1-907D-EC5A6AD242E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -735,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11DEA6-8D89-4D9F-A495-078C0693863D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -886,7 +886,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J16"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0FC301-9B58-43C5-A375-F8B31B6A40EE}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Feast data/Land_use_parameters.xlsx
+++ b/Feast data/Land_use_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373F51D6-B773-45C1-907D-EC5A6AD242E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2420AF-C69F-443E-ABAF-BBE4689971A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -735,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11DEA6-8D89-4D9F-A495-078C0693863D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846C26CF-B37C-4213-BE8B-7FF8F600B129}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1191,21 +1191,25 @@
         <v>0</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="0"/>
+        <f>J16*F$24/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="K17" s="5">
+        <f>SUM(K13:K16)</f>
+        <v>0.48630561913816461</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>1.5422400451163965</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1256,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E13" sqref="E13:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1562,17 +1566,21 @@
         <v>4.4003751200490777E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="K17" s="5">
+        <f>SUM(K13:K16)</f>
+        <v>0.31895920880035844</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>2.3513978568633731</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1619,7 +1627,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="K13" sqref="K13:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1933,17 +1941,21 @@
         <v>3.1825571651625251E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="K17" s="5">
+        <f ca="1">SUM(K13:K16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -1961,7 +1973,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +1982,7 @@
         <v>2.0017718673612626</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
@@ -1990,7 +2002,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K13" sqref="K13:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2299,17 +2311,21 @@
         <v>3.9321937783668368E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="K17" s="5">
+        <f>SUM(K13:K16)</f>
+        <v>0.41523931294777644</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>46</v>
       </c>
@@ -2318,7 +2334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>44</v>
       </c>
@@ -2327,7 +2343,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>22</v>
       </c>
@@ -2336,7 +2352,7 @@
         <v>1.8061873638017643</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>

--- a/Feast data/Land_use_parameters.xlsx
+++ b/Feast data/Land_use_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2420AF-C69F-443E-ABAF-BBE4689971A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736300E-6C54-4A9A-9FF7-2172092452C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD52B3EE-DB29-4DC2-9E9E-CE560F672143}">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11DEA6-8D89-4D9F-A495-078C0693863D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846C26CF-B37C-4213-BE8B-7FF8F600B129}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,7 +1163,7 @@
         <v>36.437224850067189</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ref="K14:K16" si="0">J14*F$24/100</f>
+        <f t="shared" ref="K14:K15" si="0">J14*F$24/100</f>
         <v>0.1771962719038844</v>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E16"/>
+      <selection activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2002,7 +2002,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Feast data/Land_use_parameters.xlsx
+++ b/Feast data/Land_use_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736300E-6C54-4A9A-9FF7-2172092452C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59D694C-DD3A-4F05-B1DF-6D497B61DB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
@@ -736,7 +736,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
